--- a/tasks/EmployeeSystem/3plus_category_employees.xlsx
+++ b/tasks/EmployeeSystem/3plus_category_employees.xlsx
@@ -311,10 +311,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.82421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.13671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="58.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.8515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.03125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="56.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
